--- a/Automatetest.xlsx
+++ b/Automatetest.xlsx
@@ -437,7 +437,7 @@
     </row>
     <row r="2">
       <c r="B2" s="1" t="n">
-        <v>44801.82967592592</v>
+        <v>44804.90148824643</v>
       </c>
     </row>
     <row r="7">
